--- a/StructureDefinition-access-type.xlsx
+++ b/StructureDefinition-access-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T21:50:53+00:00</t>
+    <t>2024-03-18T15:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-access-type.xlsx
+++ b/StructureDefinition-access-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:37:44+00:00</t>
+    <t>2024-03-18T15:48:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-access-type.xlsx
+++ b/StructureDefinition-access-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:48:54+00:00</t>
+    <t>2024-03-21T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
